--- a/Team-Data/2008-09/3-19-2008-09.xlsx
+++ b/Team-Data/2008-09/3-19-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.594</v>
+        <v>0.588</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -693,7 +760,7 @@
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N2" t="n">
         <v>0.363</v>
@@ -705,7 +772,7 @@
         <v>25.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
@@ -717,7 +784,7 @@
         <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
@@ -741,19 +808,19 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -798,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.735</v>
+        <v>0.739</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
@@ -914,19 +981,19 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -971,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -983,22 +1050,22 @@
         <v>29</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.456</v>
+        <v>0.464</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.452</v>
@@ -1245,19 +1312,19 @@
         <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
@@ -1266,7 +1333,7 @@
         <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1281,16 +1348,16 @@
         <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1335,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -1397,40 +1464,40 @@
         <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.821</v>
+        <v>0.806</v>
       </c>
       <c r="H6" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
@@ -1445,34 +1512,34 @@
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
         <v>20</v>
       </c>
-      <c r="V6" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>20.1</v>
-      </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>24</v>
@@ -1517,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>14</v>
@@ -1526,10 +1593,10 @@
         <v>24</v>
       </c>
       <c r="AV6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW6" t="n">
         <v>7</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
@@ -1538,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
         <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.594</v>
+        <v>0.603</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
@@ -1624,10 +1691,10 @@
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
         <v>13.1</v>
@@ -1639,22 +1706,22 @@
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1675,16 +1742,16 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1696,19 +1763,19 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1851,10 +1918,10 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1881,7 +1948,7 @@
         <v>13</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2066,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,7 +2207,7 @@
         <v>39.4</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
         <v>0.459</v>
@@ -2149,16 +2216,16 @@
         <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O10" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="P10" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="Q10" t="n">
         <v>0.786</v>
@@ -2179,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X10" t="n">
         <v>6.5</v>
@@ -2197,10 +2264,10 @@
         <v>108.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2254,19 +2321,19 @@
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2618,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2788,10 +2855,10 @@
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2812,7 +2879,7 @@
         <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -2865,22 +2932,22 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
         <v>19.9</v>
@@ -2892,7 +2959,7 @@
         <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
         <v>31.7</v>
@@ -2901,10 +2968,10 @@
         <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
@@ -2919,16 +2986,16 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.3</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2958,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3146,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3319,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>0.449</v>
+        <v>0.443</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,22 +3484,22 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.784</v>
@@ -3441,16 +3508,16 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.3</v>
@@ -3462,25 +3529,25 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -3489,7 +3556,7 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3519,19 +3586,19 @@
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -3692,7 +3759,7 @@
         <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3898,7 +3965,7 @@
         <v>21</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3910,7 +3977,7 @@
         <v>19</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4044,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>25</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -4569,13 +4636,13 @@
         <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
         <v>24</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4830,7 @@
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
@@ -4805,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>10</v>
@@ -4814,10 +4881,10 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -4975,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -5046,40 +5113,40 @@
         <v>0.632</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
         <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T26" t="n">
         <v>41.3</v>
@@ -5091,7 +5158,7 @@
         <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
@@ -5100,16 +5167,16 @@
         <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD26" t="n">
         <v>8</v>
@@ -5124,34 +5191,34 @@
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,13 +5227,13 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
         <v>23</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5427,7 @@
         <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -5664,16 +5731,16 @@
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5718,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5900,16 +5967,16 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6061,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6088,7 +6155,7 @@
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-19-2008-09</t>
+          <t>2009-03-19</t>
         </is>
       </c>
     </row>
